--- a/biology/Médecine/Transmission_funiculaire_en_médecine/Transmission_funiculaire_en_médecine.xlsx
+++ b/biology/Médecine/Transmission_funiculaire_en_médecine/Transmission_funiculaire_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transmission_funiculaire_en_m%C3%A9decine</t>
+          <t>Transmission_funiculaire_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission funiculaire en médecine traduit la présence du plasmodium falciparum dans le cordon ombilical résultant de la transmission maternofoetale du paludisme dans les zones tropicales et quelques rares fois dans certaines zones tempérées. D'apres la thèse en médecine du Dr Tabita Simon[réf. incomplète].
  Portail de la médecine                     </t>
